--- a/DOWNLOADS/EDITAIS/U_158197_E_900072025/U_158197_E_900072025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_158197_E_900072025/U_158197_E_900072025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="240">
   <si>
     <t>Nº</t>
   </si>
@@ -574,268 +574,154 @@
     <t>Tela Projeção Tela Projeção Material Estrutura: Plástico, Tipo Ajuste Tela: Retrátil, Material: Poliéster, Tipo Fixação: Parede/Teto/Tripé, Altura: 180CM, Largura: 148CM, Características Adicionais: Portátil/Estojo Alumínio/Alça Anatômica Transporte, Tipo Tela: Chroma Key</t>
   </si>
   <si>
-    <t>Câmera Video conferência Resolução: 1080 X 1920; Tipo Lente: Foco Automático X; velocidade Transmissão Vídeo: 60 Fps; Características Adicionais: Webcam Usb Com Microfone Embutido</t>
-  </si>
-  <si>
-    <t>Ar- condicionado com capacidade de refrigeração: 9. 000 BTU, Tensão: 220 V, Tipo: Split Hi Wall, Características Adicionais 1: Controle Remoto S/Fio, Inverter</t>
-  </si>
-  <si>
-    <t>Armário para escritório: Material: Mdf; Quantidade Portas: 2 UN; Material Porta: Madeira Mdf; Tipo Portas: De Giro; Quantidade Prateleiras: 4 UN; Material Prateleiras: Madeira Mdf; Tipo Puxador: Alça; Revestimento: Laminado Melamínico; Largura: 80 CM; Altura: 160 CM; Características Adicionais: Travamento Portas Sistema Cremona, Fechadura Com Chave; Profundidade: 51</t>
-  </si>
-  <si>
-    <t>Poltrrona: Material Estrutura: Tubo Aço;Material Estofamento: Espuma Poliuretano Injetado; Revestimento: Couro Sintético; Cor: Preta;Características Adicionais: Assento Com 1 Almofada Solta; Quantidade Assentos: 1 UN; Largura: 0,90 M; Profundidade: 0,90 M; Altura: 0,84 M</t>
-  </si>
-  <si>
-    <t>Armário Roupeiro De Aço Vestiário 20 Portas Locker Cor Cinza, modelo: Roupeiro 20 portas, material: aço, altura do locker: 1,98 m, largura do locker: 125 cm, profundidade do locker: 40 cm, Peso do locker: 40 kg, Altura do escaninho: 37 cm, Largura do escaninho: 27 cm, Comprimento do escaninho: 38 cm, Peso máximo suportado 30kg, Tipo de fechamento: cadeado.</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Tipo: Split Hi Wall Modelo: Split Inverter Capacidade Refrigeração: 12.000 BTU/H Tensão: 220 V Freqüência: 60 HZ</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Tipo: Split Modelo: Split Inverter Capacidade Refrigeração: 18.000 BTU Tensão:220 V</t>
-  </si>
-  <si>
-    <t>Filmadora/Monitor Portátil Tipo Zoom: Óptico / Digital Amplitude Zoom Digital: 30 X Amplitude Zoom Ótico: 15 X Sistema Gravação: Cartão Memória Sd/Sdhc/Sdx Tipo: Digital Resolução: 4k PX</t>
-  </si>
-  <si>
-    <t>Purificador de Água Osmose Reversa Equipamento de bancada compacto para laboratório, indicado na purificação de água através de água potável ou pré-tratada entre um sistema de alta pressão e outro de baixa pressão com a membrana de osmose semipermeável para reter partículas de até 0,001 micron que remove metais pesados, compostos químicos, pesticidas, herbicidas, bactérias, vírus, cloro, sabores, cistos, turbidez, odores, etc. Deve ter baixo consumo de energia e mínimo desperdício de água tratada. Produção de 10 litros/hora a 25ºC. Produzir água tipo II. Deve fornecer água pura, sem microrganismos, e com teor muito baixo de minerais dissolvidos. Os purificadores devem operar dentro dos seguintes parâmetros com água de abastecimento: condutividade em torno de 300 uS/cm, dureza máxima 205 ppm, ferro máximo 0,3 ppm, TDS máximo 2000 ppm, manganês máximo 0,05 ppm e sulfito de hidrogênio 0 (zero). Deve ser totalmente construído em polipropileno atóxico com 3 estágios de pré-filtração: 1- Pré-filtração com cartucho plissado retrolavável de 5 micra, para retenção de sólidos em suspensão; 2 - Pré-filtração cartucho polipropileno de 5 micra, para retirada materiais em suspensão; 3- Pré-filtração com cartucho de carvão ativado 5 micra, para retirada de cloro, odores e substâncias químicas orgânicas. A purificação final deve ser feita por uma membrana para osmose reversa semipermeável. Filtração com cartucho desmineralizador carregado com resina mista para troca iônica com função de polimento. Filtração final com filtro absoluto para retenção de finos liberados pelas resinas, microrganismos e bactérias. Deve ser fabricado 100% em polipropileno virgem, com capacidade de retenção absoluta de 0,2 micron com eficiência de 99,99%. Deve conter tanque pressurizado 10 litros com desligamento automático e bomba pressurizada. Alimentação: 220 Volts, 60 Hz, consumo +-10 Watts, cabo de força 2P + T, norma ABNT 14136. Materiais acessórios: 2 metros de mangueira de 1/4 azul e adaptador macho de 1/2" para conexão a rede de água, 2 metros de mangueira de 1/4 azul para coleta de água tratada e 2 metros de mangueira de 1/4 laranja para dreno do rejeito e duas saidas para coleta de água tratada continua e intermitente.</t>
-  </si>
-  <si>
-    <t>NEGATOSCÓPIO ULTRA SLIM LED, COM SISTEMA PARA FIXAÇÃO DA RADIOGRAFIA ODONTOLÓGICA, MATERIAL VISOR:ACRÍLICO TRANSLUCIDO, CARENAGEM CONFECCCIONADA EM ABS, COM LUPA CRISTAL COMPRIMENTO: CERCA DE 35 CM, ALTURA: 238MM, LARGURA: CERCA DE 55 CM, TENSÃO ALIMENTAÇÃO: 220V , APLICAÇÃO:C/ 1CORPO P/ FIXAÇÃO EM PAREDE OU DE MESA. CARACTERÍSTICAS ADICIONAIS:PRENDEDOR RADIOGRAFIA NO CORPO,TECLA LIGA/DESLIGA. Marcas de referência: Biotron, Essence Dental VH ou similar. Modelos de referência: Ultra Slim LED Biotron, Slim Led Essence Dental.</t>
-  </si>
-  <si>
-    <t>BALANÇA PRECISÃO, CAPACIDADE MÁXIMA:3 KG, RESOLUÇÃO:0,1 G, TIPO PAINEL:CRISTAL LÍQUIDO COM ILUMINAÇÃO, CARACTERÍSTICAS ADICIONAIS:PAINEL SELADO, TARA AUTOMÁTICA, SAÍDA RS 232</t>
-  </si>
-  <si>
-    <t>Destilador de Água PILSEN - Capacidade: 50 L/H. Voltagem: 220V monofásico. Características Adicionais: Dispositivo Para Desligamento Automático. Aplicação: Laboratório. Material: Aço Inox Aisi 304</t>
-  </si>
-  <si>
-    <t>Equipamento Laboratório. Tipo: Medidor de Ponto de Fusão. Ajuste: Ajuste Digital,C/ Tela Sensível Toque, Programável. Capacidade: Até 3 Capilares. Temperatura: Até 400 °C</t>
-  </si>
-  <si>
-    <t>Estufa de Secagem com Circulação e Renovação Forçada de Ar. Material: Gabinete Aço Inox. Ajuste: Ajuste Digital,C/ Painel de Controle, Programável. Capacidade: 150 L. Temperatura: Até 200 °C. Temporização: C/ Temporizador Até 1000 MIN. Componentes: C/ 3 Bandejas. Adicional: C/ Vedação, Alarmes.</t>
-  </si>
-  <si>
-    <t>EXAUSTOR, MATERIAL:POLIPROPILENO, APLICAÇÃO:CAPELA EXAUSTÃO, DIÂMETRO:200 MM, POTÊNCIA MOTOR:2 CV, ROTAÇÃO MOTOR:3400 RPM, TENSÃO:220/380 V, CARACTERÍSTICAS ADICIONAIS:ROTORES BALANCEADOS, INVERSOR DE FREQUÊNCIA, VAZÃO:500-3000 M3/H</t>
-  </si>
-  <si>
-    <t>Manta aquecedora, tipo: para balão, ajuste: ajuste mecânico, botão controle, capacidade: 500 ml, temperatura: até 300 °C. Adicional: com agitação.</t>
-  </si>
-  <si>
-    <t>Medidor Laboratório. Tipo: Portátil. Uso: Medição de oxigênio dissolvido. Aplicação: Análise Química. Características Adicionais: À prova d’água. Capacidade: 0 a 20 mg/L. Material Básico: Plástico</t>
-  </si>
-  <si>
-    <t>Escada doméstica, material: alumínio, número degraus: 6 un, altura: 1,90 m, características adicionais: pés antiderrapantes, trava de segurança, capacidade: 150 kg, peso: 6 kg, tipo: dobrável.</t>
-  </si>
-  <si>
-    <t>Cadeira clínica, aplicação: otorrinolaringologia, material: aço inoxidável, acabamento da estrutura: pintura poliuretana, acabamento do assento: espuma de alta densidade, tipo de pés: com 4 rodízios, acionamento: elétrico/hidráulico, características adicionais: perneira e braço estofados escamoteáveis. Voltagem: 220v</t>
-  </si>
-  <si>
-    <t>Centrífuga Componentes: C/ Trava Segurança na Tampa Rotação: Até 15.000 RPM Capacidade: Até 24 Capilares Ajuste: Ajuste Mecânico, Botão Controle Velocidade Temporização: Temporizador Até 60 MIN Tipo: P/ Microhematócrito</t>
-  </si>
-  <si>
-    <t>Coletor lixo, material: polietileno alta densidade, capacidade: 1.000 l, cor: branca, impressão: infectante, diâmetro roda: 8 pol, componentes: tampa articulada, 4 rodas borracha maciça e freios, aplicação: coleta seletiva, dimensão: 134 x 114 x 140 cm</t>
-  </si>
-  <si>
-    <t>Cuba Uso Hospitalar Material: Aço Inox , Formato: Tipo Rim , Capacidade: Cerca de 700 mL</t>
-  </si>
-  <si>
-    <t>Especulo Auricular co 4 unidades ESPÉCULO, TIPO AURICULAR, CARACTERÍSTICAS ADICIONAIS P/OTOSCÓPIO,4MM,NÃO ESTÉRIL,DESCARTÁVEL</t>
-  </si>
-  <si>
-    <t>Fotóforo, tipo lâmpada: led, características adicionais: com iluminação coaxial, regulagem luminosidade, tipo fixação: cinta de cabeça com faixa de ajuste</t>
-  </si>
-  <si>
-    <t>Aparelho diagn / terap, tipo 1: diapasão uso médico, material: aço inoxidável, tipo de análise: frequência cerca 1024 hz, componentes 1: c/ cabo longo</t>
-  </si>
-  <si>
-    <t>Aparelho diagn / terap, tipo 1: diapasão uso médico, material: aço inoxidável, tipo de análise: frequência cerca 256 hz, componentes 1: c/ cabo longo</t>
-  </si>
-  <si>
-    <t>Aparelho diagn / terap, tipo 1: diapasão uso médico, material: aço inoxidável, tipo de análise: frequência cerca 512 hz, componentes 1: c/ cabo longo</t>
-  </si>
-  <si>
-    <t>Apoio Punho Teclado. Material: Elastômero, Tecido E Gelatina De Silicone. Cor: Azul. Comprimento: 39 Cm Largura: 60 Cm Altura Apoio Punho: 20 Cm Características Adicionais: Ergonômico/Base Antiderrapante E Bordas Arredondas</t>
-  </si>
-  <si>
-    <t>Armário de aço para herbário com 27 escaninho, com as seguintes medidas aproximadas: 1980mm altura x 1000 mm largura x 500 mm profundidade, com 09 compartimentos para colocação de material anti mofo, portas vedadas de abrir com fechadura tipo Yale na maçaneta. Confeccionado em chapa de aço 22 (0,76mm).</t>
-  </si>
-  <si>
-    <t>Aspirador de cerume ouvido EXTRATOR, TIPO RETIRADA DE CERUME, MATERIAL AÇO INOXIDÁVEL, MODELO GANCHO NA EXTREMIDADE ANGULADA, TAMANHO Nº 18</t>
-  </si>
-  <si>
-    <t>Bandeja, material: aço inoxidável, tipo: lisa, dimensões: cerca de 20 x 10 x 1 cm, esterilidade: esterilizável</t>
-  </si>
-  <si>
-    <t>Câmara contagem, tipo: neubauer, material: vidro, profundidade: profundidade cerca de 0,1 mm, característica adicional: espelhada</t>
-  </si>
-  <si>
-    <t>Chaleira elétrica, material: aço inoxidável. Capacidade: 1,7 l, características adicionais: desligamento automático, base destacável, potência mínima: 1200 w. Voltagem: 220 v</t>
-  </si>
-  <si>
-    <t>Colchonete Térmico para mesa cirúrgica veterinária - 220V. Fabricado em nylon com tratamento impermeável, tamanho 100x50 cm, forração interna em poliéster com proteção anti-chama, controlador de temperatura com pelo menos 2 estágios de temperatura, e sensores de segurança para diminuir o risco de queimadura do animal.</t>
-  </si>
-  <si>
-    <t>Coletor lixo, material: polietileno alta densidade, capacidade: 240 l, cor: branca, tratamento superficial: anti-raios ultravioleta, diâmetro roda: 200 mm, componentes: tampa acionada por pedal, características adicionais: 2 rodas de borracha maciça, aplicação: uso hospitalar</t>
-  </si>
-  <si>
-    <t>Conector Intermediário, em aço inoxidável. Aplicação: Cânula de aspiração, 70 mm. Esterilidade: Esterilizável</t>
-  </si>
-  <si>
-    <t>Dispositivo P/ Medidas Antropométricas Escala Graduação: C/ Escala Métrica - Mm E Cm Adicional: Portátil Tipo*: Tipo Régua Componente Ii: Dobrável, Sistema Telescópico Material*: Alumínio Anodizado Componente Iii: Tripé Regulável Faixa Medição: Cerca De 2,0 M</t>
-  </si>
-  <si>
-    <t>Espéculo Nasal Adulto ESPÉCULO, MATERIAL AÇO INOXIDÁVEL, MODELO HARTMANN, TIPO NASAL, COMPRIMENTO TOTAL 17 CM, APLICAÇÃO ADULTO, TAMANHO LONGO</t>
-  </si>
-  <si>
-    <t>Especulo Nasal Infantil ESPÉCULO, MATERIAL AÇO INOXIDÁVEL, TIPO NASAL, COMPRIMENTO TOTAL 15 CM, APLICAÇÃO INFANTIL</t>
-  </si>
-  <si>
-    <t>Estesiômetro Composição: 7 Tubos Com 1 Par Filamentos Nylon Especial Aplicação: Teste De Sensibilidade Cutânea</t>
-  </si>
-  <si>
-    <t>Estilete porta algodão ESTILETE CIRÚRGICO, MATERIAL AÇO INOXIDÁVEL, COMPRIMENTO 16 CM, CARACTERÍSTICAS ADICIONAIS PORTA ALGODÃO, TIPO PONTA FINA</t>
-  </si>
-  <si>
-    <t>Garrafa térmica, material: aço inoxidável, capacidade: 1,50 l, características adicionais: com anel de silicone e dupla parede interna</t>
-  </si>
-  <si>
-    <t>Maca clínica, material: aço inoxidável, acabamento da superfície: esmaltado, rodas: sem rodízios, pés fixo, comprimento: até 1,90 m, largura: cerca de 0,60 m, altura: cerca de 1,00 m, componentes: suporte soro removível, características adicionais: cabeceira regulável por cremalheira, características adicionais 01:grades escamoteáveis</t>
-  </si>
-  <si>
-    <t>Material laboratório, tipo: agulha de gavagem, material: aço inox, dimensões: cerca de 0,5 x 55 mm, adicional: curva, componentes: c, esfera distal</t>
-  </si>
-  <si>
-    <t>Mesa para pesquisa/cirurgias em pequenos animais (ratos e camundongos), com estabilizadores para fixação dos membros do animal. Material: aço inoxidável ou acrílico.</t>
-  </si>
-  <si>
-    <t>Pinça cirúrgica modelo jacaré (rinofaringe), formato ponta: ponta reta, tipo ponta: serrilhada, haste: haste angulada, comprimento total: cerca de 20 cm, componente: s/ cremalheira, material: aço inoxidável, esterilidade: esterilizável</t>
-  </si>
-  <si>
-    <t>Pinça cirúrgica, material: aço inoxidável, modelo: biópsia de boca, tipo ponta: ponta reta, comprimento: 20 cm</t>
-  </si>
-  <si>
-    <t>Pinça cirúrgica, modelo Kelly. Formato ponta: ponta reta, tipo ponta: serrilhada, comprimento total: cerca de 12 cm, componente: c/ cremalheira, material: aço inoxidável, esterilidade: esterilizável</t>
-  </si>
-  <si>
-    <t>PINÇA RINOFARINGE BIOPSIA PINÇA CIRÚRGICA, MATERIAL AÇO INOXIDÁVEL, TIPO PONTA 1 PONTA ANGULADA, MODELO 3 PARA BIOPSIA DE RINOFARINGE, COMPRIMENTO TOTAL CERCA DE 170 MM</t>
-  </si>
-  <si>
-    <t>Pontas de Aspiração de ouvido 2,5 mm CONJUNTO (I), TIPO PONTAS DE ASPIRAÇÃO DE OUVIDO AÇO INOX 10CM, COMPONENTES TAMANHOS: 10,12,14,16,18,25 E 30</t>
-  </si>
-  <si>
-    <t>Pote vidro, finalidade:laboratório, formato: cilíndrico, diâmetro: 10 cm, capacidade: 1.000 ml, características adicionais: com tampa rosqueável.</t>
-  </si>
-  <si>
-    <t>Sonda de Itard 3mm SONDA USO OTORRINOLARINGOLOGIA, MATERIAL* AÇO INOXIDÁVEL, MODELO 1 ITARD, COMPRIMENTO CERCA 15 CM, DIÂMETRO DIÂMETRO CERCA 3 MM, TIPO USO ESTERILIZÁVEL</t>
-  </si>
-  <si>
-    <t>Tesoura instrumental, modelo 1: spencer/buck, tipo ponta: ponta curva, haste: haste reta, comprimento total: cerca de 12 cm, material: aço inoxidável, esterilidade:esterilizável</t>
-  </si>
-  <si>
-    <t>Tesoura instrumental, modelo 1: spencer/buck, tipo ponta: ponta reta, haste: haste reta, comprimento total: cerca de 12 cm, material: aço inoxidável, esterilidade:esterilizável</t>
-  </si>
-  <si>
-    <t>Alfaia 20" aro de madeira afinação corda. Especificações: Modelo: BME18 Material: madeira, couro, corda Pele: Couro com aro em aluminio Afinação: Cordas Tamanho: aprox. 20" (polegadas)</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Capacidade Refrigeração: 22.000 BTU Tensão: 220 V Tipo: Split Modelo: Split Inverter Características Adicionais 1: Com Controle Remoto</t>
-  </si>
-  <si>
-    <t>Câmera De Vídeo Resolução: 1920 X 1080 PX Interface: Usb, Bluetooth, Nfc Formato: H.264 Com Svc E Uvc 1.5 Tipo Zoom: Digital 4x Tipo: Digital Características Adicionais: Microfones Omnidirecionais Integrados Tensão Alimentação: 110/220 V</t>
-  </si>
-  <si>
-    <t>Instrumento Musical - Percursão Tipo: Caixa De Guerra/repique Material: Alumínio Componentes: 06 Afinadores Cromados, Pele Porosa, Pele Resposta Tamanho: 14" X 15 CM</t>
-  </si>
-  <si>
-    <t>Balança Pesar Pessoas Capacidade: Até 200 KG, Divisão: 50 G, Alimentação: Bateria V, Características Adicionais: Plataforma De Vidro, Display Lcd (APROVADO INMETRO)</t>
-  </si>
-  <si>
-    <t>Bebedouro tipo: vertical elétrico, características adicionais: com duas torneiras (jato e copo), voltagem: 220 v, material gabinete: aço inoxidável, vazão água gelada: 2 l/h, material corpo: aço inoxidável</t>
-  </si>
-  <si>
-    <t>Cafeteira Elétrica Material: Aço Inoxidável , Capacidade: 2 L, Voltagem: 220 V, Características Adicionais: Café Expresso E Capuccino,Pressão 15bar, Termobloco , Potência: 1.400</t>
-  </si>
-  <si>
-    <t>Caixa Som, Potência: 10 W, Voltagem: Usb 5v Ou Dc 5v. V, Aplicação: Sala De Aula, Características Adicionais: Especificações Alto Falante: 2x2. Conexão: Usb E P2, Resposta Freqüência: 200</t>
-  </si>
-  <si>
-    <t>Carro De Emergência Hospitalar, Estrutura: Chapas De Aço Inoxidável, Gavetas: 04 Gavetas, Sendo A 1ª Com Divisão, Suporte: Suporte Para Monitor, Base Giratória, Rodízios: Com Rodízios, Características Adicionais 01: Suporte Soro E Cilindro De O2, Acessórios: Tábua De Massagem Cardíaca, Acessórios 01: Extensão Elétrica, Mínimo 5 Metros E Até 7 Plugs, Acessórios 02: Trava De Gavetas Com Lacre</t>
-  </si>
-  <si>
-    <t>Cuba Uso Hospitalar Material: Aço Inox , Formato: Retangular, Profundidade: Cerca De 5 CM, Dimensões: Cerca De 30 X 20 C</t>
-  </si>
-  <si>
-    <t>Cuba Uso Hospitalar Material: Aço Inox , Formato: Tipo Rim, Capacidade: Cerca De 700 M</t>
-  </si>
-  <si>
-    <t>Fogão Elétrico Material: Vitrocerâmico , Potência: 3000 W, Voltagem: 220 V, Componentes: 2 Acendedores</t>
-  </si>
-  <si>
-    <t>Mesa Copa: material mesa: polietileno alta densidade, comprimento mesa: 1,83 m, largura mesa: 0,76 m, altura mesa: 0,70 m, características adicionais: dobrável com travas, cor: cinza claro</t>
-  </si>
-  <si>
-    <t>Mouse Computador, Tamanho: Padrão, Sensor: Led, tipo Conector: Bluetooth, Conector Usb-C Lightihing, Conectividade: Sem Fio</t>
-  </si>
-  <si>
-    <t>Projetor Multimídia, Distância Mínima Tela: 3,80 M, Distância Máxima Tela: 71,22 M, Tipo Lâmpada: Diodo Laser, Voltagem: 110/240 VCA, Freqüência: 50/60 HZ, Quantidade Entrada Rgb: 2 UM, Quantidade Entradas Vídeo: Mínimo 5 UM, Tipo Zoom: Digital/Optico, Tipo: Teto E Mesa, Luminosidade Mínima: 12.000 LM, Tipo Projeção: Frontal E Teto, Tipo Tecnologia: Dlp Resolução Mínima: 640 X 400 DPI, Resolução: 1920 X 1200, Tipo Controle: Manual E Remoto</t>
-  </si>
-  <si>
-    <t>Quadro Tipo: Com Moldura , Material Moldura: Alumínio , Largura: 100 CM, comprimento 2000 CM, Características Adicionais: Com Suporte Para Apagador E Canetas , Aplicação: Sala De Aula , Espessura: 5 CM, Altura: 90 CM, Cor Moldura: Incolor, MDF (com espessura mínima de 6mm), sobreposto por laminado melamínico de alta pressão na cor branco brilhante (fórmica)</t>
-  </si>
-  <si>
-    <t>Televisor Tamanho Tela: 75 POL, Voltagem: 110/220 V, Cor: Preta, Características Adicionais: Smart Tv, 4 K, Wifi. Entradas Hdmi/Usb, Conversor, Tipo Tela: Led Touch Screen, Acessórios: Controle Remoto</t>
-  </si>
-  <si>
-    <t>Ventilador, Tipo: Coluna, Potência Motor: 200 W, Tensão Alimentação: 110/220 V, Características Adicionais: oscilante, Regulagem De Altura E Velocidade, Material: Aço E Plástico, Diâmetro: 60 CM, Cor: Preta</t>
-  </si>
-  <si>
-    <t>Bolsa Térmica Aplicação*: P/ Calor , Material*: Borracha Natural, Modelo: Retangular , Capacidade*: Cerca 500 ML, Componentes: C/ Tampa Rosqueável</t>
-  </si>
-  <si>
-    <t>Bolsa Térmica Aplicação*: P/ Gelo , Material*: Neoprene , Composição: C/ Gel Atóxico , Modelo: P/ Região Lombar , Componentes: Fecho Em Velcro , Características Adicionais*: C/ Sistema De Compressão</t>
-  </si>
-  <si>
-    <t>Bolsa Térmica Aplicação*: P/ Gelo , Material*: Polímero Flexível, Modelo: Redonda , Diâmetro*: Cerca 20 CM, Componentes: C/ Tampa Rosqueáve</t>
-  </si>
-  <si>
-    <t>Bomba Infusão Portátil, Material: Câmara Silicone,Tipo: Elastomérica Uso: Com Infusão Em Bôlus, Capacidade: Cerca De 300 Ml, Vazão: C/ Fluxo De Infusão Fixo, Acessórios: Sistema Fechado,Tubo Extensor, Filtro Ar Residual, características Adicionais: Graduada, Clamp, Tampa, Esterilidade: Uso Único</t>
-  </si>
-  <si>
-    <t>Cabo Extensor, Tipo: Blindagem De Alta Densidade, Tipo Saída: Usb 2.0, Conectores Macho E Fêmea, Comprimento: 30 M, Aplicação: Acessório Para Equipamentos De Audiovisual, Características Adicionais: Taxa De Transferência: 480 Mbps</t>
-  </si>
-  <si>
-    <t>Caixa Térmica Material: Polietileno Alta Densidade E Poliuretano , Capacidade: 12 L, Características Adicionais: Com Alça E Tampa, Tamanho Cerca De 40 X 25 X 26 Cm , Aplicação: Transporte De Hemocomponentes</t>
-  </si>
-  <si>
-    <t>Conjunto cadeiras espera, material assento e encosto: espuma injetada, material estrutura: aço, quantidade assentos: 4 un, apoio braço: sem braços, material revestimento assento e encosto: tecido</t>
-  </si>
-  <si>
-    <t>Gravador de som Tipo: Portátil, microfone Embutido, Entr. Fone Ouvido E Microfone, Tipo Display: Lcd, Fonte alimentação Energia: Pilha, Formato Gravação: Wav Até 24bits/96khz E Mp3 Até 320kbps, Portas De Entrada: 2 (P2), capacidade Memória Interna: 4 GB</t>
-  </si>
-  <si>
-    <t>Jarra uso Hospitalar, Material aço inoxidavel AISI 440 OU 420A, Capacidade 2 L, Caracteristicas adicionais Bordas arredondadas,Sem Aresyas, Sem Emendas., Sem tampa e com alça</t>
-  </si>
-  <si>
-    <t>Maca Clínica Material: Aço Inoxidável , Rodas: 4 Rodízios De 8", Freio Nos 2 Rodízios , Comprimento: Até 2,00 M, Largura: Cerca De 0,80 M, Capacidade De Carca: Até 150 KG, Componentes: Suporte Soro Removível , Características Adicionais: Cabeceira Regulável Por Cremalheira , Características Adicionais 01: Grades Laterais Rebatíveis , Acessórios: Colchonete</t>
-  </si>
-  <si>
-    <t>Martelo de Buck Neurol[ogico 20CM Especificações: Martelo, Material Aço Inoxidavel, Aplicação Reflexológico, Acessorios Agulhas e pincel</t>
-  </si>
-  <si>
-    <t>Mesa de Cabeceira: material: chapa aço, características adicionais: rodízios. Componente: C/Mesa Refeição C/Sistema De Regulagem Acoplada. Largura: 0,42 M. Altura: 0,80 M. Profundidade: 0,40 M</t>
-  </si>
-  <si>
-    <t>Mesa Reunião Retangular Material: Madeira Aglomerada Mdp, Comprimento: 2,00 M, Largura: 1.100 MM, Altura: 740 MM, Cor: Argila, Revestimento: Laminado Melamínico , Tipo Estrutura: Aço Galvanizado , Material Borda Lateral: Pvc , Espessura Tampo: 25 M</t>
-  </si>
-  <si>
-    <t>Mesa reunião retangular, material: madeira mdf, comprimento: 5,10 m, largura: 1,20 m, altura: 0,74 m, cor: cinza argila, revestimento: laminado melamínico, tipo bordas: arredondadas, tipo estrutura: tubo aço, material borda lateral: pvc, espessura tampo: 25 mm, cor estrutura: cinza, acabamento estrutura: pintura em epóxi, material tampo: aglomerado</t>
-  </si>
-  <si>
-    <t>Nebulizador Tipo*: Ultrassônico , Modelo: De Mesa , Ajuste: Com Interruptor Liga/Desliga , Material: Compressor C/ Gabinete Plástico , Componentes: C/ No Mínimo: Máscara, Traqueia, Frasco Graduado</t>
-  </si>
-  <si>
-    <t>TELA PROJEÇÃO, MATERIAL ESTRUTURA:PLÁSTICO, TIPO AJUSTE LA:RETRÁTIL, MATERIAL:POLIÉSTER, TIPO FIXAÇÃO:PAREDE/TETO/TRIPÉ, ALTURA:180 CM, LARGURA:148 CM, CARACTERÍSTICAS ADICIONAIS:PORTÁTIL /ESTOJO ALUMÍNIO/ALÇA ANATÔMICA TRANSPORTE, TIPO TELA:CHROMA KEY</t>
+    <t>Câmera videoconferência: Resolução 1080×1920, lente foco automático X, transmissões vídeo 60 fps, webcam USB com microfone embutido.</t>
+  </si>
+  <si>
+    <t>Ar condicionado Split Hi Wall: capacidade 9.000 BTU, tensão 220 V, controle remoto sem fio, inverter.</t>
+  </si>
+  <si>
+    <t>Armário escritório: MDF, 2 portas giratórias, 4 prateleiras, puxador de alça, revestimento laminado melamínico, 80 cm × 160 cm, travamento Cremona, fechadura chave, profundidade 51 cm.</t>
+  </si>
+  <si>
+    <t>Poltrona: estrutura tubo de aço, assento espuma poliuretano, revestimento couro sintético, cor preta, almofada solta, 0,90 m × 0,90 m × 0,84 m.</t>
+  </si>
+  <si>
+    <t>Armário aço: chapa de aço 18 mm, pintada, 20 portas, 198 cm × 123 cm × 42 cm, dispositivo para cadeado.</t>
+  </si>
+  <si>
+    <t>Ar condicionado Split Hi Wall Inverter: 12.000 BTU/H, 220 V, 60 Hz, controle remoto sem fio, controle remoto fio, quente/frio, selo Procel, garantia 1 ano.</t>
+  </si>
+  <si>
+    <t>Ar condicionado Split Inverter: 18.000 BTU, 110/220 V, controle remoto/display digital/timer/selo Procel.</t>
+  </si>
+  <si>
+    <t>Filmadora portátil: zoom óptico/digital 30X/15X, gravação cartão memória SD/SDSDRC, digital, resolução 4K.</t>
+  </si>
+  <si>
+    <t>Purificador de água: osmose reversa/eletrodeionização ou destilação, 110/220 V, vazão 10 L/h, gabinete polipropileno, tanque externo de armazenamento.</t>
+  </si>
+  <si>
+    <t>Negatoscópio: estrutura chapa de aço pintada eletrostática, visor acrílico, 110/220 V, 60 Hz, radiografias panorâmicas.</t>
+  </si>
+  <si>
+    <t>Balança de precisão: capacidade 3 kg, resolução 0,1 g, painel cristal líquido iluminado, painel selado, tara automática, saída RS‑232.</t>
+  </si>
+  <si>
+    <t>Destilador de água: capacidade 50 L/h, 220 V, dispositivo de desligamento automático, laboratório, aço inox AISI 304.</t>
+  </si>
+  <si>
+    <t>Medidor de ponto de fusão: digital, tela sensível ao toque, programável, 3 caulotes, temperatura até 400 °C.</t>
+  </si>
+  <si>
+    <t>Estufa de laboratório: renovação de ar, gabinete aço inox, ajuste digital, painel de controle, 150 L, 200 °C, temporizador até 1000 min, bandejas, vedação, alarmes.</t>
+  </si>
+  <si>
+    <t>Exaustor: polipropileno, capela de exaustão, 200 mm, 2 CV, 3400 RPM, 220/380 V, rotores balanceados, inversor de frequência, vazão 500–3000 m³/h.</t>
+  </si>
+  <si>
+    <t>Manta aquecedora: para balão, ajuste mecânico, controle, 500 ml, até 300 °C, agitação, rotação até 2000 RPM.</t>
+  </si>
+  <si>
+    <t>Medidor de laboratório portátil: oxigênio dissolvido, análise química, prova à água, 0–20 mg/L, plástico.</t>
+  </si>
+  <si>
+    <t>Escada doméstica: alumínio, 6 degraus, 1,90 m de altura, pés antiderrapantes, trava de segurança, 150 kg, 6 kg, dobrável.</t>
+  </si>
+  <si>
+    <t>Cadeira clínica: otorrinolaringologia, aço inoxidável, pintura poliuretana, espuma alta densidade, 4 rodízios, acionamento elétrico/hidráulico, perneira e braços estofados escamoteáveis.</t>
+  </si>
+  <si>
+    <t>Centrífuga: microhematócrito, ajuste mecânico, controle de velocidade, 24 caulotes, rotação até 15 000 RPM, temporização até 60 min, trava na tampa.</t>
+  </si>
+  <si>
+    <t>Coletor de lixo: polietileno HD, 1 000 L, cor amarela, 134×114×140 cm, tampa articulada, 4 rodas borracha maciça, freios, metal, roda 8 mm.</t>
+  </si>
+  <si>
+    <t>Cuba de uso hospitalar: aço inoxidável, formato rim, 500 mL.</t>
+  </si>
+  <si>
+    <t>Espéculo auricular: aço inoxidável, 4 mm de ponta, compatível com otoscópio, plástico, reutilizável.</t>
+  </si>
+  <si>
+    <t>Fotóforo: capacete regulável, lâmpada LED, 5 W, ajuste de intensidade luz, sem fio, lâmpada/vida útil 50 000 h, bateria recarregável.</t>
+  </si>
+  <si>
+    <t>Diapasão (1024 Hz): metálico, 1024 Hz, esterilizável.</t>
+  </si>
+  <si>
+    <t>Diapasão (256 Hz): metálico, 256 Hz, esterilizável.</t>
+  </si>
+  <si>
+    <t>Diapasão (512 Hz): metálico, 512 Hz, esterilizável.</t>
+  </si>
+  <si>
+    <t>Apoio de punho de teclado: elastômero, tecido e gelatina de silicone, azul, 39 cm×60 cm, 20 cm altura, ergonômico, base antiderrapante, bordas arredondadas.</t>
+  </si>
+  <si>
+    <t>Armário de aço (Chapa 26 mm): 40 portas, 1,93 m, 1,38 m, 400 mm, fecho tipo Yale 2 chaves.</t>
+  </si>
+  <si>
+    <t>Sugador cirúrgico: aço inoxidável, tipo cirúrgico, curvo, autoclavável.</t>
+  </si>
+  <si>
+    <t>Bandeja: aço inoxidável, lisa, 20×10×1 cm, esterilizável.</t>
+  </si>
+  <si>
+    <t>Câmara de contagem: tipo Neubauer, vidro, 0,1 mm, espelhada.</t>
+  </si>
+  <si>
+    <t>Chaleira elétrica: aço inoxidável, 1,7 L, desligamento automático, base destacável, elétrico, 1200 W, 110 V.</t>
+  </si>
+  <si>
+    <t>Material veterinário: colchão térmico, controle de temperatura, sensor de segurança, impermeável, 50×100 cm, reutilizável.</t>
+  </si>
+  <si>
+    <t>Coletor de lixo (240 L): polietileno HD, 240 L, branca, anti‑raios, pedal, 2 rodas ruído maciço, rotação 200 mm, uso hospitalar.</t>
+  </si>
+  <si>
+    <t>Cânula de aspiração manual: polímero, ponta distal fechada, orifícios laterais, haste semirrígida graduada, calibre 7 mm, conector padrão, estéril, único uso.</t>
+  </si>
+  <si>
+    <t>Dispositivo de medidas antropométricas: régua, alumínio anodizado, escala métrica‑mm/cm, 2 m, dobrável, telescópico, tripé regulável, portátil.</t>
+  </si>
+  <si>
+    <t>Espéculo nasal adulto: Hartmann, 3,5 cm, trava, aço inoxidável, esterilizável.</t>
+  </si>
+  <si>
+    <t>Espéculo nasal infantil: 1,5 cm, lâminas 15 mm, trava, 14 cm, plástico, não esteril, uso único, embalagem individual.</t>
+  </si>
+  <si>
+    <t>Estesiômetro: 7 tubos + 1 par de filamentos nylon, 150 L, 200 °C, 1000 min, 3 bandejas, vedação, alarmes.</t>
+  </si>
+  <si>
+    <t>Estilete de uso médico: algodão, ponta reta, haste reta, 16 cm, aço inoxidável, esterilável.</t>
+  </si>
+  <si>
+    <t>Garrafa térmica: aço inoxidável, 1,5 L, anel de silicone, dupla parede interna.</t>
+  </si>
+  <si>
+    <t>Maca clínica: aço inoxidável, esmalte, sem rodízios, pés fixos, 1,9 m, 0,6 m, 1,0 m, suporte de soro removível, cabeceira regulável cremálheira, grades escamoteáveis.</t>
+  </si>
+  <si>
+    <t>Material de laboratório: agulha de gavagem, aço inoxidável, 0,5 × 55 mm, curva, esfera distal.</t>
+  </si>
+  <si>
+    <t>Mesa clínica: chapa de aço inoxidável, ferro, 110 cm × 65 cm × 90 cm, pets veterinários, balde de alumínio, estrutura com vincos e furos.</t>
+  </si>
+  <si>
+    <t>Pinça cirúrgica (modelo Jacaré 1): ponta curva, serrilhada, haste angulada, 10 cm, sem cremalheira, aço inoxidável, esterilável.</t>
+  </si>
+  <si>
+    <t>Pinça cirúrgica (modelo Jacaré 1, ponta reta): aço inoxidável, sem cremalheira, 10 cm.</t>
+  </si>
+  <si>
+    <t>Pinça cirúrgica (modelo Kelly): ponta curva, serrilhada, 14 cm, cremalheira, aço inoxidável, esterilável.</t>
+  </si>
+  <si>
+    <t>Pinça cirúrgica (modelo Struycken): ponta angulada, concha, 14 cm, mesmo, aço inoxidável, esterilável.</t>
+  </si>
+  <si>
+    <t>Sistema fechado de aspiração traqueal: traqueostomia, 8 Fr, sonda graduada e protegida, conectores padrão, irrigação antirefluxo, aerossolterapia, válvula sucção com tampa e trava, estéril, uso único, embalagem individual.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1260,13 +1146,13 @@
         <v>1581.15</v>
       </c>
       <c r="G2" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I2" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1289,13 +1175,13 @@
         <v>2059.03</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I3" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1318,13 +1204,13 @@
         <v>636.13</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1347,13 +1233,13 @@
         <v>2400.32</v>
       </c>
       <c r="G5" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I5" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1376,13 +1262,13 @@
         <v>16729.9</v>
       </c>
       <c r="G6" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1405,13 +1291,13 @@
         <v>45515</v>
       </c>
       <c r="G7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1434,13 +1320,13 @@
         <v>67755.39999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I8" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1463,13 +1349,13 @@
         <v>4543.33</v>
       </c>
       <c r="G9" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1492,13 +1378,13 @@
         <v>5050.66</v>
       </c>
       <c r="G10" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1521,13 +1407,13 @@
         <v>427.63</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I11" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1550,13 +1436,13 @@
         <v>5200</v>
       </c>
       <c r="G12" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I12" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1579,13 +1465,13 @@
         <v>4097.2</v>
       </c>
       <c r="G13" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1608,13 +1494,13 @@
         <v>2421.69</v>
       </c>
       <c r="G14" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I14" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1637,13 +1523,13 @@
         <v>3695.63</v>
       </c>
       <c r="G15" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I15" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1666,13 +1552,13 @@
         <v>23321.52</v>
       </c>
       <c r="G16" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I16" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1695,13 +1581,13 @@
         <v>1259.49</v>
       </c>
       <c r="G17" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I17" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1724,13 +1610,13 @@
         <v>2167.23</v>
       </c>
       <c r="G18" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I18" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1753,13 +1639,13 @@
         <v>202.16</v>
       </c>
       <c r="G19" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I19" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1782,13 +1668,13 @@
         <v>11503.63</v>
       </c>
       <c r="G20" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I20" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1811,13 +1697,13 @@
         <v>3925.63</v>
       </c>
       <c r="G21" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I21" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1840,13 +1726,13 @@
         <v>3423.64</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I22" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1869,13 +1755,13 @@
         <v>216.18</v>
       </c>
       <c r="G23" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I23" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1898,13 +1784,13 @@
         <v>268.3</v>
       </c>
       <c r="G24" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H24" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I24" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1927,13 +1813,13 @@
         <v>5803.36</v>
       </c>
       <c r="G25" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H25" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I25" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1956,13 +1842,13 @@
         <v>125.93</v>
       </c>
       <c r="G26" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H26" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I26" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1985,13 +1871,13 @@
         <v>95.51000000000001</v>
       </c>
       <c r="G27" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H27" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I27" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2014,13 +1900,13 @@
         <v>102.88</v>
       </c>
       <c r="G28" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H28" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2043,13 +1929,13 @@
         <v>223.75</v>
       </c>
       <c r="G29" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H29" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I29" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2072,13 +1958,13 @@
         <v>5464.66</v>
       </c>
       <c r="G30" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H30" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2101,13 +1987,13 @@
         <v>61.51</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H31" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2130,13 +2016,13 @@
         <v>53.1</v>
       </c>
       <c r="G32" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H32" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2159,13 +2045,13 @@
         <v>326.18</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H33" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2188,13 +2074,13 @@
         <v>72.55</v>
       </c>
       <c r="G34" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H34" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2217,13 +2103,13 @@
         <v>744.3200000000001</v>
       </c>
       <c r="G35" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H35" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2246,13 +2132,13 @@
         <v>581.3200000000001</v>
       </c>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H36" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2275,13 +2161,13 @@
         <v>46.66</v>
       </c>
       <c r="G37" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H37" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I37" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2304,13 +2190,13 @@
         <v>692.1799999999999</v>
       </c>
       <c r="G38" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I38" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2333,13 +2219,13 @@
         <v>1094.7</v>
       </c>
       <c r="G39" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H39" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2362,13 +2248,13 @@
         <v>24.8</v>
       </c>
       <c r="G40" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H40" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2391,13 +2277,13 @@
         <v>1866.9</v>
       </c>
       <c r="G41" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H41" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I41" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2420,13 +2306,13 @@
         <v>324.6</v>
       </c>
       <c r="G42" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H42" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I42" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2449,13 +2335,13 @@
         <v>44.16</v>
       </c>
       <c r="G43" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H43" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I43" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2478,13 +2364,13 @@
         <v>681.96</v>
       </c>
       <c r="G44" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H44" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I44" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2507,13 +2393,13 @@
         <v>801.5</v>
       </c>
       <c r="G45" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H45" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I45" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2536,13 +2422,13 @@
         <v>2374.68</v>
       </c>
       <c r="G46" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I46" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2565,13 +2451,13 @@
         <v>431.67</v>
       </c>
       <c r="G47" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H47" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I47" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2594,13 +2480,13 @@
         <v>34.61</v>
       </c>
       <c r="G48" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H48" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I48" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2623,13 +2509,13 @@
         <v>24.93</v>
       </c>
       <c r="G49" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I49" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2652,13 +2538,13 @@
         <v>660.9299999999999</v>
       </c>
       <c r="G50" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H50" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I50" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2681,13 +2567,13 @@
         <v>173.4</v>
       </c>
       <c r="G51" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H51" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I51" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2697,9 +2583,6 @@
       <c r="B52" t="s">
         <v>148</v>
       </c>
-      <c r="C52" t="s">
-        <v>236</v>
-      </c>
       <c r="D52">
         <v>2</v>
       </c>
@@ -2710,13 +2593,13 @@
         <v>54.26</v>
       </c>
       <c r="G52" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H52" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I52" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2726,9 +2609,6 @@
       <c r="B53" t="s">
         <v>149</v>
       </c>
-      <c r="C53" t="s">
-        <v>237</v>
-      </c>
       <c r="D53">
         <v>2</v>
       </c>
@@ -2739,13 +2619,13 @@
         <v>146.56</v>
       </c>
       <c r="G53" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H53" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I53" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2755,9 +2635,6 @@
       <c r="B54" t="s">
         <v>150</v>
       </c>
-      <c r="C54" t="s">
-        <v>238</v>
-      </c>
       <c r="D54">
         <v>1</v>
       </c>
@@ -2768,13 +2645,13 @@
         <v>35.58</v>
       </c>
       <c r="G54" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H54" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I54" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2784,9 +2661,6 @@
       <c r="B55" t="s">
         <v>151</v>
       </c>
-      <c r="C55" t="s">
-        <v>239</v>
-      </c>
       <c r="D55">
         <v>1</v>
       </c>
@@ -2797,13 +2671,13 @@
         <v>34.64</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H55" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2813,9 +2687,6 @@
       <c r="B56" t="s">
         <v>152</v>
       </c>
-      <c r="C56" t="s">
-        <v>240</v>
-      </c>
       <c r="D56">
         <v>5</v>
       </c>
@@ -2826,13 +2697,13 @@
         <v>4902.7</v>
       </c>
       <c r="G56" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H56" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I56" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2842,9 +2713,6 @@
       <c r="B57" t="s">
         <v>153</v>
       </c>
-      <c r="C57" t="s">
-        <v>241</v>
-      </c>
       <c r="D57">
         <v>22</v>
       </c>
@@ -2855,13 +2723,13 @@
         <v>90357.96000000001</v>
       </c>
       <c r="G57" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H57" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I57" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2871,9 +2739,6 @@
       <c r="B58" t="s">
         <v>154</v>
       </c>
-      <c r="C58" t="s">
-        <v>242</v>
-      </c>
       <c r="D58">
         <v>10</v>
       </c>
@@ -2884,13 +2749,13 @@
         <v>6834.299999999999</v>
       </c>
       <c r="G58" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H58" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2900,9 +2765,6 @@
       <c r="B59" t="s">
         <v>155</v>
       </c>
-      <c r="C59" t="s">
-        <v>243</v>
-      </c>
       <c r="D59">
         <v>6</v>
       </c>
@@ -2913,13 +2775,13 @@
         <v>2863.62</v>
       </c>
       <c r="G59" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H59" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I59" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2929,9 +2791,6 @@
       <c r="B60" t="s">
         <v>156</v>
       </c>
-      <c r="C60" t="s">
-        <v>244</v>
-      </c>
       <c r="D60">
         <v>1</v>
       </c>
@@ -2942,13 +2801,13 @@
         <v>257.61</v>
       </c>
       <c r="G60" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H60" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2958,9 +2817,6 @@
       <c r="B61" t="s">
         <v>157</v>
       </c>
-      <c r="C61" t="s">
-        <v>245</v>
-      </c>
       <c r="D61">
         <v>3</v>
       </c>
@@ -2971,13 +2827,13 @@
         <v>2409.54</v>
       </c>
       <c r="G61" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H61" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I61" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2987,9 +2843,6 @@
       <c r="B62" t="s">
         <v>158</v>
       </c>
-      <c r="C62" t="s">
-        <v>246</v>
-      </c>
       <c r="D62">
         <v>2</v>
       </c>
@@ -3000,13 +2853,13 @@
         <v>1407.98</v>
       </c>
       <c r="G62" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3016,9 +2869,6 @@
       <c r="B63" t="s">
         <v>159</v>
       </c>
-      <c r="C63" t="s">
-        <v>247</v>
-      </c>
       <c r="D63">
         <v>15</v>
       </c>
@@ -3029,13 +2879,13 @@
         <v>2353.95</v>
       </c>
       <c r="G63" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H63" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I63" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3045,9 +2895,6 @@
       <c r="B64" t="s">
         <v>160</v>
       </c>
-      <c r="C64" t="s">
-        <v>248</v>
-      </c>
       <c r="D64">
         <v>1</v>
       </c>
@@ -3058,13 +2905,13 @@
         <v>2337.18</v>
       </c>
       <c r="G64" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H64" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I64" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3074,9 +2921,6 @@
       <c r="B65" t="s">
         <v>161</v>
       </c>
-      <c r="C65" t="s">
-        <v>249</v>
-      </c>
       <c r="D65">
         <v>3</v>
       </c>
@@ -3087,13 +2931,13 @@
         <v>162.78</v>
       </c>
       <c r="G65" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H65" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I65" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3103,9 +2947,6 @@
       <c r="B66" t="s">
         <v>162</v>
       </c>
-      <c r="C66" t="s">
-        <v>250</v>
-      </c>
       <c r="D66">
         <v>5</v>
       </c>
@@ -3116,13 +2957,13 @@
         <v>211.05</v>
       </c>
       <c r="G66" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H66" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I66" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3132,9 +2973,6 @@
       <c r="B67" t="s">
         <v>163</v>
       </c>
-      <c r="C67" t="s">
-        <v>251</v>
-      </c>
       <c r="D67">
         <v>1</v>
       </c>
@@ -3145,13 +2983,13 @@
         <v>880.3</v>
       </c>
       <c r="G67" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H67" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I67" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3161,9 +2999,6 @@
       <c r="B68" t="s">
         <v>164</v>
       </c>
-      <c r="C68" t="s">
-        <v>252</v>
-      </c>
       <c r="D68">
         <v>1</v>
       </c>
@@ -3174,13 +3009,13 @@
         <v>810.51</v>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H68" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I68" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3190,9 +3025,6 @@
       <c r="B69" t="s">
         <v>165</v>
       </c>
-      <c r="C69" t="s">
-        <v>253</v>
-      </c>
       <c r="D69">
         <v>20</v>
       </c>
@@ -3203,13 +3035,13 @@
         <v>1381.6</v>
       </c>
       <c r="G69" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H69" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I69" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3219,9 +3051,6 @@
       <c r="B70" t="s">
         <v>166</v>
       </c>
-      <c r="C70" t="s">
-        <v>254</v>
-      </c>
       <c r="D70">
         <v>3</v>
       </c>
@@ -3232,13 +3061,13 @@
         <v>6257.969999999999</v>
       </c>
       <c r="G70" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H70" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I70" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3248,9 +3077,6 @@
       <c r="B71" t="s">
         <v>167</v>
       </c>
-      <c r="C71" t="s">
-        <v>255</v>
-      </c>
       <c r="D71">
         <v>5</v>
       </c>
@@ -3261,13 +3087,13 @@
         <v>4409.35</v>
       </c>
       <c r="G71" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I71" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3277,9 +3103,6 @@
       <c r="B72" t="s">
         <v>168</v>
       </c>
-      <c r="C72" t="s">
-        <v>256</v>
-      </c>
       <c r="D72">
         <v>5</v>
       </c>
@@ -3290,13 +3113,13 @@
         <v>28313.3</v>
       </c>
       <c r="G72" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H72" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I72" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3306,9 +3129,6 @@
       <c r="B73" t="s">
         <v>169</v>
       </c>
-      <c r="C73" t="s">
-        <v>257</v>
-      </c>
       <c r="D73">
         <v>2</v>
       </c>
@@ -3319,13 +3139,13 @@
         <v>519.78</v>
       </c>
       <c r="G73" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H73" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I73" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3335,9 +3155,6 @@
       <c r="B74" t="s">
         <v>170</v>
       </c>
-      <c r="C74" t="s">
-        <v>258</v>
-      </c>
       <c r="D74">
         <v>5</v>
       </c>
@@ -3348,13 +3165,13 @@
         <v>215.2</v>
       </c>
       <c r="G74" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I74" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3364,9 +3181,6 @@
       <c r="B75" t="s">
         <v>171</v>
       </c>
-      <c r="C75" t="s">
-        <v>259</v>
-      </c>
       <c r="D75">
         <v>5</v>
       </c>
@@ -3377,13 +3191,13 @@
         <v>163.55</v>
       </c>
       <c r="G75" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H75" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I75" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3393,9 +3207,6 @@
       <c r="B76" t="s">
         <v>172</v>
       </c>
-      <c r="C76" t="s">
-        <v>260</v>
-      </c>
       <c r="D76">
         <v>5</v>
       </c>
@@ -3406,13 +3217,13 @@
         <v>294.45</v>
       </c>
       <c r="G76" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H76" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I76" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3422,9 +3233,6 @@
       <c r="B77" t="s">
         <v>173</v>
       </c>
-      <c r="C77" t="s">
-        <v>261</v>
-      </c>
       <c r="D77">
         <v>5</v>
       </c>
@@ -3435,13 +3243,13 @@
         <v>1466.65</v>
       </c>
       <c r="G77" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H77" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I77" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3451,9 +3259,6 @@
       <c r="B78" t="s">
         <v>174</v>
       </c>
-      <c r="C78" t="s">
-        <v>262</v>
-      </c>
       <c r="D78">
         <v>5</v>
       </c>
@@ -3464,13 +3269,13 @@
         <v>1293.85</v>
       </c>
       <c r="G78" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H78" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I78" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3480,9 +3285,6 @@
       <c r="B79" t="s">
         <v>175</v>
       </c>
-      <c r="C79" t="s">
-        <v>263</v>
-      </c>
       <c r="D79">
         <v>4</v>
       </c>
@@ -3493,13 +3295,13 @@
         <v>333.52</v>
       </c>
       <c r="G79" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H79" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I79" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3509,9 +3311,6 @@
       <c r="B80" t="s">
         <v>176</v>
       </c>
-      <c r="C80" t="s">
-        <v>264</v>
-      </c>
       <c r="D80">
         <v>1</v>
       </c>
@@ -3522,13 +3321,13 @@
         <v>1137.18</v>
       </c>
       <c r="G80" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="H80" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I80" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3538,9 +3337,6 @@
       <c r="B81" t="s">
         <v>177</v>
       </c>
-      <c r="C81" t="s">
-        <v>265</v>
-      </c>
       <c r="D81">
         <v>2</v>
       </c>
@@ -3551,13 +3347,13 @@
         <v>850.4400000000001</v>
       </c>
       <c r="G81" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H81" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I81" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3567,9 +3363,6 @@
       <c r="B82" t="s">
         <v>178</v>
       </c>
-      <c r="C82" t="s">
-        <v>266</v>
-      </c>
       <c r="D82">
         <v>2</v>
       </c>
@@ -3580,13 +3373,13 @@
         <v>392.98</v>
       </c>
       <c r="G82" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H82" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I82" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3596,9 +3389,6 @@
       <c r="B83" t="s">
         <v>179</v>
       </c>
-      <c r="C83" t="s">
-        <v>267</v>
-      </c>
       <c r="D83">
         <v>1</v>
       </c>
@@ -3609,13 +3399,13 @@
         <v>2005.17</v>
       </c>
       <c r="G83" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H83" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I83" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3625,9 +3415,6 @@
       <c r="B84" t="s">
         <v>180</v>
       </c>
-      <c r="C84" t="s">
-        <v>268</v>
-      </c>
       <c r="D84">
         <v>3</v>
       </c>
@@ -3638,13 +3425,13 @@
         <v>158.94</v>
       </c>
       <c r="G84" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H84" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I84" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3654,9 +3441,6 @@
       <c r="B85" t="s">
         <v>164</v>
       </c>
-      <c r="C85" t="s">
-        <v>252</v>
-      </c>
       <c r="D85">
         <v>1</v>
       </c>
@@ -3667,13 +3451,13 @@
         <v>516.64</v>
       </c>
       <c r="G85" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H85" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I85" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3683,9 +3467,6 @@
       <c r="B86" t="s">
         <v>181</v>
       </c>
-      <c r="C86" t="s">
-        <v>269</v>
-      </c>
       <c r="D86">
         <v>5</v>
       </c>
@@ -3696,13 +3477,13 @@
         <v>3392.55</v>
       </c>
       <c r="G86" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H86" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I86" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3712,9 +3493,6 @@
       <c r="B87" t="s">
         <v>182</v>
       </c>
-      <c r="C87" t="s">
-        <v>270</v>
-      </c>
       <c r="D87">
         <v>5</v>
       </c>
@@ -3725,13 +3503,13 @@
         <v>6104.15</v>
       </c>
       <c r="G87" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H87" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I87" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3741,9 +3519,6 @@
       <c r="B88" t="s">
         <v>183</v>
       </c>
-      <c r="C88" t="s">
-        <v>271</v>
-      </c>
       <c r="D88">
         <v>1</v>
       </c>
@@ -3754,13 +3529,13 @@
         <v>2316.92</v>
       </c>
       <c r="G88" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H88" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I88" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3770,9 +3545,6 @@
       <c r="B89" t="s">
         <v>184</v>
       </c>
-      <c r="C89" t="s">
-        <v>272</v>
-      </c>
       <c r="D89">
         <v>1</v>
       </c>
@@ -3783,13 +3555,13 @@
         <v>202</v>
       </c>
       <c r="G89" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H89" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I89" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3799,9 +3571,6 @@
       <c r="B90" t="s">
         <v>185</v>
       </c>
-      <c r="C90" t="s">
-        <v>273</v>
-      </c>
       <c r="D90">
         <v>5</v>
       </c>
@@ -3812,13 +3581,13 @@
         <v>230</v>
       </c>
       <c r="G90" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H90" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
